--- a/qca.xlsx
+++ b/qca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\python\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCC8E68-CACA-428C-8783-80DE844D60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11C9242-E590-443F-9C0D-BEB3DD1280C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{2C3109C3-3373-4700-9D55-0A8767011799}"/>
   </bookViews>
@@ -8140,8 +8140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CD5B9C-DFF5-4D03-A99B-2ADAEAEFF9BD}">
   <dimension ref="A1:D865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8876,6 +8876,9 @@
       <c r="C52" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
@@ -8887,6 +8890,9 @@
       <c r="C53" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
@@ -8898,6 +8904,9 @@
       <c r="C54" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
@@ -8909,6 +8918,9 @@
       <c r="C55" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
@@ -8920,6 +8932,9 @@
       <c r="C56" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
@@ -8931,6 +8946,9 @@
       <c r="C57" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -8942,6 +8960,9 @@
       <c r="C58" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
@@ -8953,6 +8974,9 @@
       <c r="C59" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
@@ -8964,6 +8988,9 @@
       <c r="C60" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
@@ -8975,6 +9002,9 @@
       <c r="C61" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
@@ -8986,6 +9016,9 @@
       <c r="C62" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
@@ -8997,6 +9030,9 @@
       <c r="C63" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
@@ -9008,8 +9044,11 @@
       <c r="C64" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>186</v>
       </c>
@@ -9019,8 +9058,11 @@
       <c r="C65" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>189</v>
       </c>
@@ -9030,8 +9072,11 @@
       <c r="C66" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>192</v>
       </c>
@@ -9041,8 +9086,11 @@
       <c r="C67" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>195</v>
       </c>
@@ -9052,8 +9100,11 @@
       <c r="C68" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>198</v>
       </c>
@@ -9063,8 +9114,11 @@
       <c r="C69" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>201</v>
       </c>
@@ -9074,8 +9128,11 @@
       <c r="C70" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>204</v>
       </c>
@@ -9085,8 +9142,11 @@
       <c r="C71" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>207</v>
       </c>
@@ -9096,8 +9156,11 @@
       <c r="C72" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
@@ -9107,8 +9170,11 @@
       <c r="C73" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>213</v>
       </c>
@@ -9118,8 +9184,11 @@
       <c r="C74" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>216</v>
       </c>
@@ -9129,8 +9198,11 @@
       <c r="C75" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>219</v>
       </c>
@@ -9140,8 +9212,11 @@
       <c r="C76" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>222</v>
       </c>
@@ -9151,8 +9226,11 @@
       <c r="C77" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>225</v>
       </c>
@@ -9162,8 +9240,11 @@
       <c r="C78" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>228</v>
       </c>
@@ -9173,8 +9254,11 @@
       <c r="C79" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
@@ -9184,8 +9268,11 @@
       <c r="C80" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>234</v>
       </c>
@@ -9195,8 +9282,11 @@
       <c r="C81" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>237</v>
       </c>
@@ -9206,8 +9296,11 @@
       <c r="C82" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>240</v>
       </c>
@@ -9217,8 +9310,11 @@
       <c r="C83" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>243</v>
       </c>
@@ -9228,8 +9324,11 @@
       <c r="C84" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>246</v>
       </c>
@@ -9239,8 +9338,11 @@
       <c r="C85" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>249</v>
       </c>
@@ -9250,8 +9352,11 @@
       <c r="C86" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>252</v>
       </c>
@@ -9261,8 +9366,11 @@
       <c r="C87" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>255</v>
       </c>
@@ -9272,8 +9380,11 @@
       <c r="C88" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>258</v>
       </c>
@@ -9283,8 +9394,11 @@
       <c r="C89" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>261</v>
       </c>
@@ -9294,8 +9408,11 @@
       <c r="C90" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>264</v>
       </c>
@@ -9305,8 +9422,11 @@
       <c r="C91" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>267</v>
       </c>
@@ -9316,8 +9436,11 @@
       <c r="C92" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>270</v>
       </c>
@@ -9327,8 +9450,11 @@
       <c r="C93" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>273</v>
       </c>
@@ -9338,8 +9464,11 @@
       <c r="C94" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>276</v>
       </c>
@@ -9349,8 +9478,11 @@
       <c r="C95" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>278</v>
       </c>
@@ -9360,8 +9492,11 @@
       <c r="C96" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>282</v>
       </c>
@@ -9371,8 +9506,11 @@
       <c r="C97" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>285</v>
       </c>
@@ -9382,8 +9520,11 @@
       <c r="C98" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>288</v>
       </c>
@@ -9393,8 +9534,11 @@
       <c r="C99" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>291</v>
       </c>
@@ -9404,8 +9548,11 @@
       <c r="C100" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>294</v>
       </c>
@@ -9415,8 +9562,11 @@
       <c r="C101" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>297</v>
       </c>
@@ -9426,8 +9576,11 @@
       <c r="C102" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>300</v>
       </c>
@@ -9437,8 +9590,11 @@
       <c r="C103" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>303</v>
       </c>
@@ -9448,8 +9604,11 @@
       <c r="C104" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>306</v>
       </c>
@@ -9459,8 +9618,11 @@
       <c r="C105" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>309</v>
       </c>
@@ -9470,8 +9632,11 @@
       <c r="C106" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>312</v>
       </c>
@@ -9481,8 +9646,11 @@
       <c r="C107" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>315</v>
       </c>
@@ -9493,7 +9661,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>318</v>
       </c>
@@ -9504,7 +9672,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>321</v>
       </c>
@@ -9515,7 +9683,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>324</v>
       </c>
@@ -9526,7 +9694,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>327</v>
       </c>
